--- a/lci-Salar-de-Pastos-Grandes.xlsx
+++ b/lci-Salar-de-Pastos-Grandes.xlsx
@@ -850,7 +850,7 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>0.03850054050821834</v>
+        <v>-0.03093941068631555</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -935,7 +935,7 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.02474001677726591</v>
+        <v>0.000371100251658989</v>
       </c>
       <c r="C33" t="s">
         <v>31</v>
